--- a/compare.xlsx
+++ b/compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\taxjob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DE0B92-0B64-48BE-B922-1AA1E8A2B221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60D1FD-5CE6-4BA1-BBC8-AE4927A05175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E1E70E61-83F0-4ACE-AB20-07EEA837DC5C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>col1</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>tw</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>qts</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -425,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58344A1-20AA-4470-9B7B-AFBA12BE5BDB}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>33020</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>44000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,6 +523,39 @@
       </c>
       <c r="C7">
         <v>52320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>32000</v>
       </c>
     </row>
   </sheetData>
